--- a/data/fast_foods.xlsx
+++ b/data/fast_foods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fast_foods_cleaned.csv" sheetId="1" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -728,6 +728,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
+      <c r="A1">
+        <v>-1</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -946,6 +949,9 @@
       <c r="AI2">
         <v>0.2</v>
       </c>
+      <c r="AJ2">
+        <v>-1</v>
+      </c>
       <c r="AK2">
         <v>2</v>
       </c>
@@ -1059,6 +1065,9 @@
       <c r="AI3">
         <v>0.2</v>
       </c>
+      <c r="AJ3">
+        <v>-1</v>
+      </c>
       <c r="AK3">
         <v>0</v>
       </c>
@@ -1094,6 +1103,9 @@
       <c r="I4">
         <v>29</v>
       </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
       <c r="K4">
         <v>2.5</v>
       </c>
@@ -1145,12 +1157,21 @@
       <c r="AA4">
         <v>2.4</v>
       </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
       <c r="AC4">
         <v>13</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>-1</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
       <c r="AG4">
         <v>2.2999999999999998</v>
       </c>
@@ -1159,6 +1180,9 @@
       </c>
       <c r="AI4">
         <v>1.3</v>
+      </c>
+      <c r="AJ4">
+        <v>-1</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1273,6 +1297,9 @@
       <c r="AI5">
         <v>2.4</v>
       </c>
+      <c r="AJ5">
+        <v>-1</v>
+      </c>
       <c r="AK5">
         <v>0</v>
       </c>
@@ -1308,6 +1335,9 @@
       <c r="I6">
         <v>31</v>
       </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
       <c r="K6">
         <v>1.7</v>
       </c>
@@ -1359,9 +1389,21 @@
       <c r="AA6">
         <v>1.7</v>
       </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
       <c r="AC6">
         <v>5</v>
       </c>
+      <c r="AD6">
+        <v>-1</v>
+      </c>
+      <c r="AE6">
+        <v>-1</v>
+      </c>
+      <c r="AF6">
+        <v>-1</v>
+      </c>
       <c r="AG6">
         <v>3.3</v>
       </c>
@@ -1370,6 +1412,9 @@
       </c>
       <c r="AI6">
         <v>0.7</v>
+      </c>
+      <c r="AJ6">
+        <v>-1</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1573,17 +1618,41 @@
       <c r="Z8">
         <v>0.6</v>
       </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+      <c r="AD8">
+        <v>-1</v>
+      </c>
       <c r="AE8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
+      <c r="AG8">
+        <v>-1</v>
+      </c>
       <c r="AH8">
         <v>5.7</v>
       </c>
       <c r="AI8">
         <v>3.3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1</v>
+      </c>
+      <c r="AK8">
+        <v>-1</v>
+      </c>
+      <c r="AL8">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1647,6 +1716,9 @@
       <c r="T9">
         <v>459</v>
       </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
       <c r="V9">
         <v>64</v>
       </c>
@@ -1665,12 +1737,21 @@
       <c r="AA9">
         <v>5.9</v>
       </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
       <c r="AC9">
         <v>86</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
+      <c r="AE9">
+        <v>-1</v>
+      </c>
+      <c r="AF9">
+        <v>-1</v>
+      </c>
       <c r="AG9">
         <v>0.3</v>
       </c>
@@ -1679,6 +1760,9 @@
       </c>
       <c r="AI9">
         <v>3.5</v>
+      </c>
+      <c r="AJ9">
+        <v>-1</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1769,12 +1853,21 @@
       <c r="AA10">
         <v>6.4</v>
       </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
       <c r="AC10">
         <v>59</v>
       </c>
       <c r="AD10">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AE10">
+        <v>-1</v>
+      </c>
+      <c r="AF10">
+        <v>-1</v>
+      </c>
       <c r="AG10">
         <v>0.1</v>
       </c>
@@ -1783,6 +1876,9 @@
       </c>
       <c r="AI10">
         <v>1.6</v>
+      </c>
+      <c r="AJ10">
+        <v>-1</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1819,6 +1915,9 @@
       <c r="I11">
         <v>53</v>
       </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
       <c r="K11">
         <v>1.8</v>
       </c>
@@ -1849,6 +1948,9 @@
       <c r="T11">
         <v>349</v>
       </c>
+      <c r="U11">
+        <v>-1</v>
+      </c>
       <c r="V11">
         <v>131</v>
       </c>
@@ -1867,12 +1969,21 @@
       <c r="AA11">
         <v>14.6</v>
       </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
       <c r="AC11">
         <v>81</v>
       </c>
       <c r="AD11">
         <v>0.7</v>
       </c>
+      <c r="AE11">
+        <v>-1</v>
+      </c>
+      <c r="AF11">
+        <v>-1</v>
+      </c>
       <c r="AG11">
         <v>1.3</v>
       </c>
@@ -1881,6 +1992,9 @@
       </c>
       <c r="AI11">
         <v>6.4</v>
+      </c>
+      <c r="AJ11">
+        <v>-1</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -1950,6 +2064,12 @@
       <c r="T12">
         <v>196</v>
       </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
       <c r="W12">
         <v>0</v>
       </c>
@@ -1965,12 +2085,21 @@
       <c r="AA12">
         <v>6.8</v>
       </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
       <c r="AC12">
         <v>28</v>
       </c>
       <c r="AD12">
         <v>0.3</v>
       </c>
+      <c r="AE12">
+        <v>-1</v>
+      </c>
+      <c r="AF12">
+        <v>-1</v>
+      </c>
       <c r="AG12">
         <v>0.6</v>
       </c>
@@ -1979,6 +2108,9 @@
       </c>
       <c r="AI12">
         <v>1.5</v>
+      </c>
+      <c r="AJ12">
+        <v>-1</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -2015,6 +2147,9 @@
       <c r="I13">
         <v>42</v>
       </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
       <c r="K13">
         <v>2.2000000000000002</v>
       </c>
@@ -2066,12 +2201,21 @@
       <c r="AA13">
         <v>14.9</v>
       </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
       <c r="AC13">
         <v>175</v>
       </c>
       <c r="AD13">
         <v>0.4</v>
       </c>
+      <c r="AE13">
+        <v>-1</v>
+      </c>
+      <c r="AF13">
+        <v>-1</v>
+      </c>
       <c r="AG13">
         <v>1.5</v>
       </c>
@@ -2080,6 +2224,9 @@
       </c>
       <c r="AI13">
         <v>9.9</v>
+      </c>
+      <c r="AJ13">
+        <v>-1</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -2348,6 +2495,9 @@
       <c r="I16">
         <v>48</v>
       </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
       <c r="K16">
         <v>2.4</v>
       </c>
@@ -2378,6 +2528,9 @@
       <c r="T16">
         <v>311</v>
       </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
       <c r="V16">
         <v>134</v>
       </c>
@@ -2396,12 +2549,21 @@
       <c r="AA16">
         <v>8.3000000000000007</v>
       </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
       <c r="AC16">
         <v>98</v>
       </c>
       <c r="AD16">
         <v>0.9</v>
       </c>
+      <c r="AE16">
+        <v>-1</v>
+      </c>
+      <c r="AF16">
+        <v>-1</v>
+      </c>
       <c r="AG16">
         <v>0</v>
       </c>
@@ -2410,6 +2572,9 @@
       </c>
       <c r="AI16">
         <v>9.4</v>
+      </c>
+      <c r="AJ16">
+        <v>-1</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -2446,6 +2611,9 @@
       <c r="I17">
         <v>39</v>
       </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
       <c r="K17">
         <v>1.9</v>
       </c>
@@ -2476,6 +2644,9 @@
       <c r="T17">
         <v>284</v>
       </c>
+      <c r="U17">
+        <v>-1</v>
+      </c>
       <c r="V17">
         <v>111</v>
       </c>
@@ -2494,12 +2665,21 @@
       <c r="AA17">
         <v>13.1</v>
       </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
       <c r="AC17">
         <v>26</v>
       </c>
       <c r="AD17">
         <v>0.7</v>
       </c>
+      <c r="AE17">
+        <v>-1</v>
+      </c>
+      <c r="AF17">
+        <v>-1</v>
+      </c>
       <c r="AG17">
         <v>1</v>
       </c>
@@ -2508,6 +2688,9 @@
       </c>
       <c r="AI17">
         <v>2.8</v>
+      </c>
+      <c r="AJ17">
+        <v>-1</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -2580,6 +2763,9 @@
       <c r="U18">
         <v>0</v>
       </c>
+      <c r="V18">
+        <v>-1</v>
+      </c>
       <c r="W18">
         <v>0</v>
       </c>
@@ -2595,12 +2781,21 @@
       <c r="AA18">
         <v>6.2</v>
       </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
         <v>0.3</v>
       </c>
+      <c r="AE18">
+        <v>-1</v>
+      </c>
+      <c r="AF18">
+        <v>-1</v>
+      </c>
       <c r="AG18">
         <v>0.4</v>
       </c>
@@ -2609,6 +2804,9 @@
       </c>
       <c r="AI18">
         <v>0.9</v>
+      </c>
+      <c r="AJ18">
+        <v>-1</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -2723,6 +2921,9 @@
       <c r="AI19">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AJ19">
+        <v>-1</v>
+      </c>
       <c r="AK19">
         <v>0</v>
       </c>
@@ -2758,6 +2959,9 @@
       <c r="I20">
         <v>51</v>
       </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
       <c r="K20">
         <v>3</v>
       </c>
@@ -2809,12 +3013,21 @@
       <c r="AA20">
         <v>9.6</v>
       </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
       <c r="AC20">
         <v>142</v>
       </c>
       <c r="AD20">
         <v>0.2</v>
       </c>
+      <c r="AE20">
+        <v>-1</v>
+      </c>
+      <c r="AF20">
+        <v>-1</v>
+      </c>
       <c r="AG20">
         <v>0.9</v>
       </c>
@@ -2823,6 +3036,9 @@
       </c>
       <c r="AI20">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ20">
+        <v>-1</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -2975,6 +3191,9 @@
       <c r="I22">
         <v>55</v>
       </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
       <c r="K22">
         <v>2.9</v>
       </c>
@@ -3026,12 +3245,21 @@
       <c r="AA22">
         <v>17.100000000000001</v>
       </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
       <c r="AC22">
         <v>45</v>
       </c>
       <c r="AD22">
         <v>0.3</v>
       </c>
+      <c r="AE22">
+        <v>-1</v>
+      </c>
+      <c r="AF22">
+        <v>-1</v>
+      </c>
       <c r="AG22">
         <v>1.3</v>
       </c>
@@ -3040,6 +3268,9 @@
       </c>
       <c r="AI22">
         <v>7.3</v>
+      </c>
+      <c r="AJ22">
+        <v>-1</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -3386,6 +3617,9 @@
       <c r="AI25">
         <v>2.7</v>
       </c>
+      <c r="AJ25">
+        <v>-1</v>
+      </c>
       <c r="AK25">
         <v>0</v>
       </c>
@@ -3731,6 +3965,9 @@
       <c r="AI28">
         <v>3.4</v>
       </c>
+      <c r="AJ28">
+        <v>-1</v>
+      </c>
       <c r="AK28">
         <v>0</v>
       </c>
@@ -3844,6 +4081,9 @@
       <c r="AI29">
         <v>1.4</v>
       </c>
+      <c r="AJ29">
+        <v>-1</v>
+      </c>
       <c r="AK29">
         <v>0</v>
       </c>
@@ -4847,6 +5087,9 @@
       <c r="U38">
         <v>0</v>
       </c>
+      <c r="V38">
+        <v>-1</v>
+      </c>
       <c r="W38">
         <v>0</v>
       </c>
@@ -4862,6 +5105,9 @@
       <c r="AA38">
         <v>0</v>
       </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
       <c r="AC38">
         <v>0</v>
       </c>
@@ -4882,6 +5128,9 @@
       </c>
       <c r="AI38">
         <v>3.7</v>
+      </c>
+      <c r="AJ38">
+        <v>-1</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -4978,17 +5227,26 @@
       <c r="AC39">
         <v>0</v>
       </c>
+      <c r="AD39">
+        <v>-1</v>
+      </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>-1</v>
       </c>
       <c r="AH39">
         <v>7.7</v>
       </c>
       <c r="AI39">
         <v>5.0999999999999996</v>
+      </c>
+      <c r="AJ39">
+        <v>-1</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -5025,6 +5283,9 @@
       <c r="I40">
         <v>23</v>
       </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
       <c r="K40">
         <v>4.9000000000000004</v>
       </c>
@@ -5076,12 +5337,21 @@
       <c r="AA40">
         <v>7.8</v>
       </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
       <c r="AC40">
         <v>1051</v>
       </c>
       <c r="AD40">
         <v>0.4</v>
       </c>
+      <c r="AE40">
+        <v>-1</v>
+      </c>
+      <c r="AF40">
+        <v>-1</v>
+      </c>
       <c r="AG40">
         <v>0</v>
       </c>
@@ -5090,6 +5360,9 @@
       </c>
       <c r="AI40">
         <v>0.6</v>
+      </c>
+      <c r="AJ40">
+        <v>-1</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -5126,6 +5399,9 @@
       <c r="I41">
         <v>56</v>
       </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
       <c r="K41">
         <v>2.6</v>
       </c>
@@ -5177,12 +5453,21 @@
       <c r="AA41">
         <v>6.7</v>
       </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
       <c r="AC41">
         <v>76</v>
       </c>
       <c r="AD41">
         <v>1.2</v>
       </c>
+      <c r="AE41">
+        <v>-1</v>
+      </c>
+      <c r="AF41">
+        <v>-1</v>
+      </c>
       <c r="AG41">
         <v>0.6</v>
       </c>
@@ -5191,6 +5476,9 @@
       </c>
       <c r="AI41">
         <v>3.5</v>
+      </c>
+      <c r="AJ41">
+        <v>-1</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -5227,6 +5515,9 @@
       <c r="I42">
         <v>18</v>
       </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
       <c r="K42">
         <v>0.9</v>
       </c>
@@ -5278,12 +5569,21 @@
       <c r="AA42">
         <v>5.2</v>
       </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
       <c r="AC42">
         <v>0</v>
       </c>
       <c r="AD42">
         <v>0.6</v>
       </c>
+      <c r="AE42">
+        <v>-1</v>
+      </c>
+      <c r="AF42">
+        <v>-1</v>
+      </c>
       <c r="AG42">
         <v>0.5</v>
       </c>
@@ -5292,6 +5592,9 @@
       </c>
       <c r="AI42">
         <v>1.7</v>
+      </c>
+      <c r="AJ42">
+        <v>-1</v>
       </c>
       <c r="AK42">
         <v>0</v>
